--- a/Meteorological Data/Monthly Irradiance.xlsx
+++ b/Meteorological Data/Monthly Irradiance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkustconnect-my.sharepoint.com/personal/lcchanaj_connect_ust_hk/Documents/桌面/FYP Code/Meteorological Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_08B577045D65581F6822A45559245E3FB48F8FED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08D0597D-4329-4839-BCCB-326DB1699DCF}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_08B569CCDA4DB62FE0343CF448245E3FB48F8FE7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D7C2473-B0D4-428A-B36B-1E4B70834786}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C8" sqref="C8:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -421,7 +421,7 @@
         <v>44805</v>
       </c>
       <c r="B2">
-        <v>4333.7837603225807</v>
+        <v>4476.9757090000003</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">

--- a/Meteorological Data/Monthly Irradiance.xlsx
+++ b/Meteorological Data/Monthly Irradiance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkustconnect-my.sharepoint.com/personal/lcchanaj_connect_ust_hk/Documents/桌面/FYP Code/Meteorological Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_08B569CCDA4DB62FE0343CF448245E3FB48F8FE7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D7C2473-B0D4-428A-B36B-1E4B70834786}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_08B51F8CDD66342FE0343CF448245E3FB48F8FE7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB93B62D-9D0C-415C-8401-08F6CF87859F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,7 +403,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C11"/>
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
